--- a/MedicalLink/Templates/BC_37_DoanhThuTheoLoaiHinhDichVu_ChiTiet.xlsx
+++ b/MedicalLink/Templates/BC_37_DoanhThuTheoLoaiHinhDichVu_ChiTiet.xlsx
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:I8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,25 +737,25 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="9">
-        <f>SUM(C5:C5)</f>
+        <f>SUM(C5:C5)/3</f>
         <v>0</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
-        <f>SUM(E5:E5)</f>
+        <f>SUM(E5:E5)/3</f>
         <v>0</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9">
-        <f>SUM(G5:G5)</f>
+        <f>SUM(G5:G5)/3</f>
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <f>SUM(H5:H5)</f>
+        <f>SUM(H5:H5)/3</f>
         <v>0</v>
       </c>
       <c r="I6" s="9">
-        <f>SUM(I5:I5)</f>
+        <f>SUM(I5:I5)/3</f>
         <v>0</v>
       </c>
       <c r="J6" s="14"/>
